--- a/MoneyBook.xlsx
+++ b/MoneyBook.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -25,7 +25,10 @@
     <t>Purpose</t>
   </si>
   <si>
-    <t>Transacted amount</t>
+    <t>Trsct Type</t>
+  </si>
+  <si>
+    <t>Trstcd amt</t>
   </si>
   <si>
     <t>Balance</t>
@@ -34,37 +37,22 @@
     <t>20-June-2022</t>
   </si>
   <si>
-    <t>10:06 AM</t>
-  </si>
-  <si>
-    <t>10:07 AM</t>
-  </si>
-  <si>
-    <t>10:08 AM</t>
-  </si>
-  <si>
-    <t>10:09 AM</t>
-  </si>
-  <si>
-    <t>10:10 AM</t>
-  </si>
-  <si>
-    <t>Deposited</t>
-  </si>
-  <si>
-    <t>Lunch</t>
-  </si>
-  <si>
-    <t>Coffee</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>Bank</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>10:41 AM</t>
+  </si>
+  <si>
+    <t>10:42 AM</t>
+  </si>
+  <si>
+    <t>dep</t>
+  </si>
+  <si>
+    <t>debit</t>
+  </si>
+  <si>
+    <t>Deposit [+]</t>
+  </si>
+  <si>
+    <t>Withdrawn [-]</t>
   </si>
 </sst>
 </file>
@@ -422,13 +410,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,125 +432,54 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="E2">
-        <v>1000</v>
-      </c>
       <c r="F2">
-        <v>1000</v>
+        <v>500</v>
+      </c>
+      <c r="G2">
+        <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>100</v>
       </c>
-      <c r="F3">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4">
-        <v>50</v>
-      </c>
-      <c r="F4">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5">
-        <v>20</v>
-      </c>
-      <c r="F5">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6">
-        <v>5000</v>
-      </c>
-      <c r="F6">
-        <v>5830</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>5830</v>
+      <c r="G3">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
